--- a/実験の記録.xlsx
+++ b/実験の記録.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>optunaあり</t>
     <phoneticPr fontId="1"/>
@@ -37,6 +38,29 @@
   </si>
   <si>
     <t>metric="binary_logloss"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>feat00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>feat01</t>
+  </si>
+  <si>
+    <t>e-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dp resolution</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e-5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -80,8 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -388,7 +413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -469,4 +494,64 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>0.37069999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0.37259999999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.37230000000000002</v>
+      </c>
+      <c r="D3">
+        <v>0.37259999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/実験の記録.xlsx
+++ b/実験の記録.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>optunaあり</t>
     <phoneticPr fontId="1"/>
@@ -61,6 +62,22 @@
   </si>
   <si>
     <t>e-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lgbm_feat01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>catboost_feat00</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -500,7 +517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -554,4 +571,54 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>0.372554364981384</v>
+      </c>
+      <c r="C2">
+        <v>0.37324940000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>0.36497808229178202</v>
+      </c>
+      <c r="C3">
+        <v>0.36880839999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/実験の記録.xlsx
+++ b/実験の記録.xlsx
@@ -139,6 +139,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>105767</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1005840"/>
+          <a:ext cx="5401667" cy="3238500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -577,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -620,5 +663,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/実験の記録.xlsx
+++ b/実験の記録.xlsx
@@ -7,38 +7,115 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="特徴量エンジニアリング" sheetId="3" r:id="rId1"/>
+    <sheet name="score" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
-  <si>
-    <t>optunaあり</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>optunaなし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>health_is_1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>health_is_2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>metric="auc"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>metric="binary_logloss"</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+  <si>
+    <t>LB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>integerだがカテゴリ値にするべきものを増やす</t>
+    <rPh sb="13" eb="14">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lightGBM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>catboost</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>randomforest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>線形モデル</t>
+    <rPh sb="0" eb="2">
+      <t>センケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Target Encoding</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欠損値の補完</t>
+    <rPh sb="0" eb="2">
+      <t>ケッソン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正規化 (CVにて適用）</t>
+    <rPh sb="0" eb="3">
+      <t>セイキカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型変換、時系列変換、Ordinal Encoding</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジケイレツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ordinal Encoding特徴量の削除</t>
+    <rPh sb="16" eb="18">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>feat03</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -47,21 +124,14 @@
   </si>
   <si>
     <t>feat01</t>
-  </si>
-  <si>
-    <t>e-4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>e-3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dp resolution</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>e-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>feat02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">〇 </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -69,15 +139,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>LB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lgbm_feat01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>catboost_feat00</t>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stacking (1+2+3+4)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -101,15 +171,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -117,13 +193,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -139,49 +278,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>105767</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1005840"/>
-          <a:ext cx="5401667" cy="3238500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -471,85 +567,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="2" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="10" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.55979999999999996</v>
-      </c>
-      <c r="C2">
-        <v>0.57789999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0.5655</v>
-      </c>
-      <c r="C3">
-        <v>0.60029999999999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="C6">
-        <v>0.56540000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0.56699999999999995</v>
-      </c>
-      <c r="C7">
-        <v>0.60589999999999999</v>
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J5"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -558,111 +705,116 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0.36870000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0.37140000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>0.36359999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0.36220000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>0.37069999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>0.37259999999999999</v>
-      </c>
-      <c r="C3">
-        <v>0.37230000000000002</v>
-      </c>
-      <c r="D3">
-        <v>0.37259999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D5" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>0.3745</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>0.372554364981384</v>
-      </c>
-      <c r="C2">
-        <v>0.37324940000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>0.36497808229178202</v>
-      </c>
-      <c r="C3">
-        <v>0.36880839999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/実験の記録.xlsx
+++ b/実験の記録.xlsx
@@ -16,21 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
-  <si>
-    <t>LB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>integerだがカテゴリ値にするべきものを増やす</t>
-    <rPh sb="13" eb="14">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>lightGBM</t>
     <phoneticPr fontId="1"/>
@@ -148,6 +134,47 @@
   </si>
   <si>
     <t>stacking (1+2+3+4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stacking (1+2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>線形モデルやNNを見据え、要らない特徴量を洗い出す</t>
+    <rPh sb="0" eb="2">
+      <t>センケイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ミス</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lgbmによるstacking</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NN</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -251,16 +278,16 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -582,113 +609,113 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="2"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -705,10 +732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -717,99 +744,139 @@
     <col min="2" max="2" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
         <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0.36870000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>0.37219999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0.37140000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>0.37709999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.37240000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>0.36359999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>0.36509999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>0.36220000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>0.3619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>0.3745</v>
+      </c>
+      <c r="D8">
+        <v>0.3775</v>
+      </c>
+      <c r="E8">
+        <v>0.37390000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>0.37590000000000001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/実験の記録.xlsx
+++ b/実験の記録.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>lightGBM</t>
     <phoneticPr fontId="1"/>
@@ -175,6 +175,78 @@
   </si>
   <si>
     <t>NN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特徴量のヒント</t>
+    <rPh sb="0" eb="2">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>problemsを分解してフラグにする</t>
+    <rPh sb="9" eb="11">
+      <t>ブンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木の種類の一般的な名前(spc_common, spc_latin)から、その木の平均高さを追加</t>
+    <rPh sb="39" eb="40">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 木の種類の一般的な名前(spc_common)と木のラテン名(spc_latin)の線形性回避</t>
+    <rPh sb="43" eb="45">
+      <t>センケイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地域の略称(nta)と地域の正式な名称(nta_name)の線形性回避</t>
+    <rPh sb="30" eb="32">
+      <t>センケイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boroname, borocodeの線形性回避</t>
+    <rPh sb="19" eb="21">
+      <t>センケイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイヒ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -856,10 +928,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -879,6 +951,36 @@
         <v>24</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/実験の記録.xlsx
+++ b/実験の記録.xlsx
@@ -9,14 +9,102 @@
   <sheets>
     <sheet name="特徴量エンジニアリング" sheetId="3" r:id="rId1"/>
     <sheet name="score" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="to do" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作成者</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>作成者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+boronameなどもカテゴリ変数として扱う</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>作成者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+problemsに対するfeature engineering</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>作成者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+多重共線性を排除</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>lightGBM</t>
     <phoneticPr fontId="1"/>
@@ -145,31 +233,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>線形モデルやNNを見据え、要らない特徴量を洗い出す</t>
-    <rPh sb="0" eb="2">
-      <t>センケイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ミス</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>トクチョウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>リョウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>アラ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>lgbmによるstacking</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -178,74 +241,28 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>特徴量のヒント</t>
-    <rPh sb="0" eb="2">
-      <t>トクチョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>リョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>problemsを分解してフラグにする</t>
-    <rPh sb="9" eb="11">
-      <t>ブンカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>木の種類の一般的な名前(spc_common, spc_latin)から、その木の平均高さを追加</t>
-    <rPh sb="39" eb="40">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ヘイキン</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 木の種類の一般的な名前(spc_common)と木のラテン名(spc_latin)の線形性回避</t>
-    <rPh sb="43" eb="45">
-      <t>センケイ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>カイヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>地域の略称(nta)と地域の正式な名称(nta_name)の線形性回避</t>
-    <rPh sb="30" eb="32">
-      <t>センケイ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>カイヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>boroname, borocodeの線形性回避</t>
-    <rPh sb="19" eb="21">
-      <t>センケイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カイヒ</t>
+    <t>CV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルール違反にならないよう修正</t>
+    <rPh sb="3" eb="5">
+      <t>イハン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -254,7 +271,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +285,21 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -669,7 +701,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -803,182 +835,209 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="106.8" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>0.36870000000000003</v>
       </c>
-      <c r="D2">
+      <c r="E3">
         <v>0.37219999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="G3">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>0.37140000000000001</v>
       </c>
-      <c r="D3">
+      <c r="E4">
         <v>0.37709999999999999</v>
       </c>
-      <c r="E3">
+      <c r="F4">
         <v>0.37240000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="G4">
+        <v>0.38669999999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.37519999999999998</v>
+      </c>
+      <c r="I4">
+        <v>0.38019999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>0.36359999999999998</v>
       </c>
-      <c r="D4">
+      <c r="E5">
         <v>0.36509999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="G5">
+        <v>0.36730000000000002</v>
+      </c>
+      <c r="I5">
+        <v>0.36309999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>0.36220000000000002</v>
       </c>
-      <c r="D5">
+      <c r="E6">
         <v>0.3619</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="G6">
+        <v>0.36370000000000002</v>
+      </c>
+      <c r="I6">
+        <v>0.36370000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>0.3745</v>
       </c>
-      <c r="D8">
+      <c r="E9">
         <v>0.3775</v>
       </c>
-      <c r="E8">
+      <c r="F9">
         <v>0.37390000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="I9">
+        <v>0.38390000000000002</v>
+      </c>
+      <c r="J9">
+        <v>0.38100000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="D9">
+      <c r="E10">
         <v>0.37590000000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.38009999999999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/実験の記録.xlsx
+++ b/実験の記録.xlsx
@@ -10,6 +10,7 @@
     <sheet name="特徴量エンジニアリング" sheetId="3" r:id="rId1"/>
     <sheet name="score" sheetId="5" r:id="rId2"/>
     <sheet name="to do" sheetId="4" r:id="rId3"/>
+    <sheet name="気づき" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -104,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>lightGBM</t>
     <phoneticPr fontId="1"/>
@@ -237,10 +238,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CV</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -264,6 +261,57 @@
     <rPh sb="12" eb="14">
       <t>シュウセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stacking (1+2+3+4+5)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>target Encodingの際に層化Kfoldではなく単純なKfoldを採用した判断は、正しかったかもしれない。</t>
+    <rPh sb="16" eb="17">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソウカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タンジュン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>サイヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス数のばらつきに対してロバストなモデルにつながるため。</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LB_ルール準拠</t>
+    <rPh sb="6" eb="8">
+      <t>ジュンキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tabnetのチューニング</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -271,7 +319,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +348,15 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -380,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -393,6 +450,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -836,10 +896,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J18" sqref="J18:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -847,10 +907,11 @@
     <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.109375" customWidth="1"/>
     <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="106.8" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="106.8" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -861,28 +922,31 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -902,7 +966,7 @@
         <v>0.3745</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -928,7 +992,7 @@
         <v>0.38019999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -948,7 +1012,7 @@
         <v>0.36309999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -968,42 +1032,59 @@
         <v>0.36370000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>0.3533</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9">
+        <v>0.38440000000000002</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>0.3745</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>0.3775</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>0.37390000000000001</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>0.38390000000000002</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>0.38100000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="K10">
+        <v>0.37880000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>0.37590000000000001</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>0.38009999999999999</v>
       </c>
     </row>
@@ -1020,14 +1101,14 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -1037,7 +1118,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1045,4 +1126,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/実験の記録.xlsx
+++ b/実験の記録.xlsx
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>lightGBM</t>
     <phoneticPr fontId="1"/>
@@ -250,10 +250,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>LB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ルール違反にならないよう修正</t>
     <rPh sb="3" eb="5">
       <t>イハン</t>
@@ -268,10 +264,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>target Encodingの際に層化Kfoldではなく単純なKfoldを採用した判断は、正しかったかもしれない。</t>
     <rPh sb="16" eb="17">
       <t>サイ</t>
@@ -311,7 +303,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>tabnetのチューニング</t>
+    <t>tabnet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LB_ルール違反</t>
+    <rPh sb="6" eb="8">
+      <t>イハン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -319,7 +318,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,15 +347,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -437,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -450,9 +440,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -761,7 +748,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -899,7 +886,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18:J19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -907,7 +894,7 @@
     <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.109375" customWidth="1"/>
     <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="106.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -940,10 +927,10 @@
         <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1037,7 +1024,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="I7">
         <v>0.3533</v>
@@ -1045,13 +1032,16 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9">
         <v>0.38440000000000002</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>29</v>
+      <c r="J9">
+        <v>0.3821</v>
+      </c>
+      <c r="K9">
+        <v>0.38009999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1098,27 +1088,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1140,12 +1125,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/実験の記録.xlsx
+++ b/実験の記録.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="特徴量エンジニアリング" sheetId="3" r:id="rId1"/>
     <sheet name="score" sheetId="5" r:id="rId2"/>
     <sheet name="to do" sheetId="4" r:id="rId3"/>
     <sheet name="気づき" sheetId="6" r:id="rId4"/>
+    <sheet name="メモ" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -100,12 +101,64 @@
         </r>
       </text>
     </comment>
+    <comment ref="L2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>作成者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+boro_ctのtarget encodingを削除</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>作成者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+KFold(n_splits=4, shuffle=True, random_state=4)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>lightGBM</t>
     <phoneticPr fontId="1"/>
@@ -310,6 +363,28 @@
     <t>LB_ルール違反</t>
     <rPh sb="6" eb="8">
       <t>イハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kfold分割数を増やすほどCvscoreも増えるのは当然、過学習しているためであり、LBは高くならない</t>
+    <rPh sb="5" eb="8">
+      <t>ブンカツスウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トウゼン</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>カガクシュウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>タカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -318,7 +393,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,8 +423,17 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,6 +443,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,11 +517,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -441,6 +532,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -456,6 +548,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>183067</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45721</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1"/>
+          <a:ext cx="3231067" cy="4236720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -797,13 +932,13 @@
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -823,9 +958,9 @@
       <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -843,8 +978,8 @@
       <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -856,7 +991,7 @@
       <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -883,22 +1018,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5546875" customWidth="1"/>
+    <col min="13" max="14" width="14.77734375" customWidth="1"/>
+    <col min="15" max="15" width="7.5546875" customWidth="1"/>
+    <col min="16" max="17" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="106.8" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="106.8" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -932,8 +1073,26 @@
       <c r="K2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -952,8 +1111,14 @@
       <c r="I3">
         <v>0.3745</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -978,8 +1143,14 @@
       <c r="I4">
         <v>0.38019999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -998,8 +1169,14 @@
       <c r="I5">
         <v>0.36309999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1018,8 +1195,14 @@
       <c r="I6">
         <v>0.36370000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1029,8 +1212,22 @@
       <c r="I7">
         <v>0.3533</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>27</v>
       </c>
@@ -1040,11 +1237,25 @@
       <c r="J9">
         <v>0.3821</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="6">
         <v>0.38009999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="2">
+        <v>0.37830000000000003</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2">
+        <v>0.37590000000000001</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.38059999999999999</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2">
+        <v>0.37759999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -1066,8 +1277,14 @@
       <c r="K10">
         <v>0.37880000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -1077,6 +1294,20 @@
       <c r="I11">
         <v>0.38009999999999999</v>
       </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1090,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1115,10 +1346,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1133,8 +1364,30 @@
         <v>29</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H13" sqref="H12:H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>